--- a/bots/crawl_ch/output/clothes_2022-07-16.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-16.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1194,36 +1194,32 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3668130002</t>
+          <t>3404677007</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Prix Garantie Söckli Box one size noir</t>
+          <t>Naturaline Herren Slip schwarz L</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/prix-garantie-soeckli-box-one-size-noir/p/3668130002</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-l/p/3404677007</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1232,67 +1228,55 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.49/1ST</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Prix Garantie Söckli Box one size noir 2.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip schwarz L 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3404677007</t>
+          <t>3668130002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz L</t>
+          <t>Prix Garantie Söckli Box one size noir</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-l/p/3404677007</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/prix-garantie-soeckli-box-one-size-noir/p/3668130002</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1301,26 +1285,42 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.49/1ST</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz L 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
+          <t>Prix Garantie Söckli Box one size noir 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1652,30 +1652,32 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3305484009</t>
+          <t>3450446007</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss L</t>
+          <t>Naturaline Herren Shirt schwarz L</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-l/p/3305484009</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-l/p/3450446007</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1684,7 +1686,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1693,34 +1695,34 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss L 7.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz L 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6365978009</t>
+          <t>3305484009</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38</t>
+          <t>Naturaline Damen Slip weiss L</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-socken-glatt-duo-schwarz-35-38/p/6365978009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-l/p/3305484009</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1735,7 +1737,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1744,42 +1746,40 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38 8.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss L 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3450446007</t>
+          <t>6365978009</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz L</t>
+          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-l/p/3450446007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-socken-glatt-duo-schwarz-35-38/p/6365978009</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1797,17 +1797,17 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz L 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2084,97 +2084,75 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6077152003</t>
+          <t>6365819006</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Avela Kniestrumpf Pure Hasel One Size</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-kniestrumpf-pure-hasel-one-size/p/6077152003</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-43-45/p/6365819006</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1.63/1ST</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Avela Kniestrumpf Pure Hasel One Size 3.25 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6365819006</t>
+          <t>6031467020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-43-45/p/6365819006</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-xxl/p/6031467020</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2189,7 +2167,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -2198,40 +2176,42 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45 8.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6031467020</t>
+          <t>3404678005</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL</t>
+          <t>Naturaline Herren Boxer schwarz S</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-xxl/p/6031467020</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-s/p/3404678005</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2240,7 +2220,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2249,37 +2229,41 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Boxer schwarz S 50% Aktion 9.45 Schweizer Franken statt 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3404678005</t>
+          <t>6077152003</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz S</t>
+          <t>Avela Kniestrumpf Pure Hasel One Size</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-s/p/3404678005</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-kniestrumpf-pure-hasel-one-size/p/6077152003</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
@@ -2288,31 +2272,47 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1.63/1ST</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz S 50% Aktion 9.45 Schweizer Franken statt 18.95 Schweizer Franken</t>
+          <t>Avela Kniestrumpf Pure Hasel One Size 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2416,24 +2416,24 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6075749004</t>
+          <t>6075749002</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  13 - 14</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-13-14/p/6075749004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-13-14/p/6075749002</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2462,29 +2462,29 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6075749002</t>
+          <t>6075749004</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  13 - 14</t>
+          <t>Avela Strumpfhose Top Size Noir  13 - 14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-13-14/p/6075749002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-13-14/p/6075749004</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2513,12 +2513,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Noir  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:26</t>
+          <t>2022-07-16 20:56:48</t>
         </is>
       </c>
     </row>
